--- a/xlsx/美式英語_intext.xlsx
+++ b/xlsx/美式英語_intext.xlsx
@@ -29,7 +29,7 @@
     <t>英語方言列表</t>
   </si>
   <si>
-    <t>政策_政策_美國_美式英語</t>
+    <t>体育运动_体育运动_足球_美式英語</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E6%9C%AC%E8%8B%B1%E8%AF%AD</t>
